--- a/test.xlsx
+++ b/test.xlsx
@@ -21,6 +21,36 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>월</t>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+  </si>
+  <si>
+    <t>수</t>
+  </si>
+  <si>
+    <t>목</t>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+  <si>
+    <t>토</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,63 +381,64 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>8</v>
+      <c r="A8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>9</v>
+      <c r="A9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>10</v>
+      <c r="A10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>